--- a/uploads/csv/Cooperativas.xlsx
+++ b/uploads/csv/Cooperativas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6aea5b4c8f27d898/Escritorio/Fernando Salguero/pc-vivavook/Git/Sistema-compras-conjuntas/uploads/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="11_AD4D2F04E46CFB4ACB3E203025D0C782683EDF23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A85398ED-7BDA-4CF9-B750-241F82025941}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="11_AD4D2F04E46CFB4ACB3E203025D0C782683EDF23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C05B786-5663-4B2C-8E90-D7DBC38DC199}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/uploads/csv/Cooperativas.xlsx
+++ b/uploads/csv/Cooperativas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6aea5b4c8f27d898/Escritorio/Fernando Salguero/pc-vivavook/Git/Sistema-compras-conjuntas/uploads/csv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6aea5b4c8f27d898/Escritorio/Impulsa Desarrollos/Sistema-compras-conjuntas/uploads/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="11_AD4D2F04E46CFB4ACB3E203025D0C782683EDF23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C05B786-5663-4B2C-8E90-D7DBC38DC199}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="11_AD4D2F04E46CFB4ACB3E203025D0C782683EDF23" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{664E2B34-D866-43DE-8735-2DDB8180D469}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cooperativas" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="70">
   <si>
     <t>id_cooperativa</t>
   </si>
@@ -84,13 +84,175 @@
   </si>
   <si>
     <t>observaciones</t>
+  </si>
+  <si>
+    <t>Altas Cumbres</t>
+  </si>
+  <si>
+    <t>Brindis</t>
+  </si>
+  <si>
+    <t>Colonia California</t>
+  </si>
+  <si>
+    <t>Del Algarrobal</t>
+  </si>
+  <si>
+    <t>El Cerrito</t>
+  </si>
+  <si>
+    <t>El Libertador</t>
+  </si>
+  <si>
+    <t>El Poniente</t>
+  </si>
+  <si>
+    <t>Giagnoni</t>
+  </si>
+  <si>
+    <t>Goudge</t>
+  </si>
+  <si>
+    <t>La Dormida</t>
+  </si>
+  <si>
+    <t>Las Trincheras</t>
+  </si>
+  <si>
+    <t>Maipu</t>
+  </si>
+  <si>
+    <t>Mendoza</t>
+  </si>
+  <si>
+    <t>Norte Lavallino</t>
+  </si>
+  <si>
+    <t>Norte Mendocino</t>
+  </si>
+  <si>
+    <t>Nueva California</t>
+  </si>
+  <si>
+    <t>Pampanos</t>
+  </si>
+  <si>
+    <t>Prod.Junín</t>
+  </si>
+  <si>
+    <t>Rama Caida</t>
+  </si>
+  <si>
+    <t>Real del Padre</t>
+  </si>
+  <si>
+    <t>Sierra Pintada</t>
+  </si>
+  <si>
+    <t>Tres de Mayo</t>
+  </si>
+  <si>
+    <t>Tres Porteñas</t>
+  </si>
+  <si>
+    <t>Tulumaya</t>
+  </si>
+  <si>
+    <t>Vista Flores</t>
+  </si>
+  <si>
+    <t>Moluches</t>
+  </si>
+  <si>
+    <t>San Carlos Sud</t>
+  </si>
+  <si>
+    <t>30630406419</t>
+  </si>
+  <si>
+    <t>30633780699</t>
+  </si>
+  <si>
+    <t>30630441001</t>
+  </si>
+  <si>
+    <t>30638811568</t>
+  </si>
+  <si>
+    <t>30517585900</t>
+  </si>
+  <si>
+    <t>30517257415</t>
+  </si>
+  <si>
+    <t>30503062263</t>
+  </si>
+  <si>
+    <t>30631537851</t>
+  </si>
+  <si>
+    <t>30502977950</t>
+  </si>
+  <si>
+    <t>30517683627</t>
+  </si>
+  <si>
+    <t>33561865839</t>
+  </si>
+  <si>
+    <t>33631316889</t>
+  </si>
+  <si>
+    <t>30630221885</t>
+  </si>
+  <si>
+    <t>30505870782</t>
+  </si>
+  <si>
+    <t>30630902645</t>
+  </si>
+  <si>
+    <t>30503018876</t>
+  </si>
+  <si>
+    <t>30504480948</t>
+  </si>
+  <si>
+    <t>30516964924</t>
+  </si>
+  <si>
+    <t>30631044936</t>
+  </si>
+  <si>
+    <t>30517866586</t>
+  </si>
+  <si>
+    <t>33553586289</t>
+  </si>
+  <si>
+    <t>30503322729</t>
+  </si>
+  <si>
+    <t>30516880151</t>
+  </si>
+  <si>
+    <t>30518026174</t>
+  </si>
+  <si>
+    <t>30507818141</t>
+  </si>
+  <si>
+    <t>30631653797</t>
+  </si>
+  <si>
+    <t>30630585232</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,12 +266,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
@@ -140,12 +296,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -164,10 +317,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -433,68 +582,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="28.85546875" style="2"/>
+    <col min="1" max="1" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="28.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -505,16 +654,16 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="A3" s="1">
+        <v>30630780752</v>
+      </c>
+      <c r="B3" s="1">
+        <v>30630780752</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -522,6 +671,546 @@
       </c>
       <c r="H3" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>33505883239</v>
+      </c>
+      <c r="B16" s="1">
+        <v>33505883239</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="1">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
